--- a/data_file.xlsx
+++ b/data_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAGNER\PycharmProjects\eng_dict_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3F24C6-2703-4DD1-BCC4-B64CB9F388C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CEFA78-2471-406F-852D-0B26C91DCD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="1328">
   <si>
     <t>a</t>
   </si>
@@ -4033,6 +4033,27 @@
   </si>
   <si>
     <t>устоявщееся выражение, фраза.</t>
+  </si>
+  <si>
+    <t>verbose</t>
+  </si>
+  <si>
+    <t>подробный</t>
+  </si>
+  <si>
+    <t>расмещать</t>
+  </si>
+  <si>
+    <t>просто</t>
+  </si>
+  <si>
+    <t>наречие</t>
+  </si>
+  <si>
+    <t>simpl</t>
+  </si>
+  <si>
+    <t>простой</t>
   </si>
 </sst>
 </file>
@@ -6963,8 +6984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A964" workbookViewId="0">
-      <selection activeCell="D993" sqref="D993"/>
+    <sheetView tabSelected="1" topLeftCell="A985" workbookViewId="0">
+      <selection activeCell="D1012" sqref="D1012"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11614,8 +11635,12 @@
       <c r="B626" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="C626" s="1"/>
-      <c r="D626" s="1"/>
+      <c r="C626" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>1323</v>
+      </c>
     </row>
     <row r="627" spans="2:4">
       <c r="B627" s="2" t="s">
@@ -12517,8 +12542,12 @@
       <c r="B750" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C750" s="1"/>
-      <c r="D750" s="1"/>
+      <c r="C750" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>1324</v>
+      </c>
     </row>
     <row r="751" spans="2:4">
       <c r="B751" s="2" t="s">
@@ -14478,14 +14507,26 @@
       </c>
     </row>
     <row r="1007" spans="1:4">
-      <c r="B1007" s="1"/>
-      <c r="C1007" s="1"/>
-      <c r="D1007" s="1"/>
+      <c r="B1007" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C1007" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1007" s="1" t="s">
+        <v>1322</v>
+      </c>
     </row>
     <row r="1008" spans="1:4">
-      <c r="B1008" s="1"/>
-      <c r="C1008" s="1"/>
-      <c r="D1008" s="1"/>
+      <c r="B1008" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C1008" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1008" s="1" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="1009" spans="2:4">
       <c r="B1009" s="1"/>
